--- a/Prove modelli audio/Exel confronti/Confronti_output.xlsx
+++ b/Prove modelli audio/Exel confronti/Confronti_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaraauriemma/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaraauriemma/Desktop/Creative_programming_and_computing/SonART/Project/Prove modelli audio/Exel confronti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BBCBDE-BA05-9748-B17F-417C652AEEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB48CE-1771-5A48-8E70-425E8C70EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{555F36DE-8F55-0548-942B-3AD3F1952369}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{555F36DE-8F55-0548-942B-3AD3F1952369}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -635,7 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -976,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28F8F75-7FBE-C040-9198-EC9D5FD2985B}">
   <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="88" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="125" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1051,7 @@
       <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" t="s">
         <v>90</v>
       </c>
       <c r="Q3" t="s">
@@ -1142,7 +1141,7 @@
       <c r="Q5" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" t="s">
         <v>5</v>
       </c>
       <c r="T5" t="s">
@@ -1189,7 +1188,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1323,7 +1322,7 @@
       <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" t="s">
         <v>99</v>
       </c>
       <c r="Q16" t="s">
@@ -1503,7 +1502,6 @@
       <c r="I25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="10"/>
       <c r="N25" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1595,7 @@
       <c r="F29" s="9"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1736,7 +1734,7 @@
       <c r="Q36" t="s">
         <v>37</v>
       </c>
-      <c r="R36" s="10" t="s">
+      <c r="R36" t="s">
         <v>5</v>
       </c>
       <c r="T36" t="s">
@@ -1863,10 +1861,10 @@
       <c r="H44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="12"/>
+      <c r="L44" s="11"/>
       <c r="N44" s="5" t="s">
         <v>97</v>
       </c>
@@ -1893,10 +1891,10 @@
       <c r="F45" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="13"/>
+      <c r="L45" s="12"/>
       <c r="N45" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +1921,6 @@
       <c r="B46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="10"/>
       <c r="E46" t="s">
         <v>10</v>
       </c>
@@ -1937,10 +1934,10 @@
         <v>19</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="11" t="s">
         <v>84</v>
       </c>
       <c r="N46" t="s">
@@ -1984,13 +1981,13 @@
       <c r="I47" t="s">
         <v>72</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L47" t="s">
         <v>89</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="M47" s="11" t="s">
         <v>85</v>
       </c>
       <c r="N47" t="s">
@@ -2031,7 +2028,7 @@
       <c r="N48" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="10" t="s">
+      <c r="O48" t="s">
         <v>98</v>
       </c>
       <c r="Q48" t="s">
@@ -2055,7 +2052,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
+      <c r="A49" s="13"/>
       <c r="E49" t="s">
         <v>13</v>
       </c>
@@ -2136,8 +2133,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E53" s="14"/>
-      <c r="H53" s="10"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -2184,8 +2180,8 @@
       <c r="K56" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="10" t="s">
-        <v>90</v>
+      <c r="L56" t="s">
+        <v>26</v>
       </c>
       <c r="N56" t="s">
         <v>30</v>
@@ -2217,7 +2213,6 @@
       <c r="B57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="10"/>
       <c r="E57" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2284,7 @@
       <c r="L58" t="s">
         <v>89</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="11" t="s">
         <v>85</v>
       </c>
       <c r="N58" t="s">
@@ -2338,7 +2333,7 @@
       <c r="N59" t="s">
         <v>33</v>
       </c>
-      <c r="O59" s="10" t="s">
+      <c r="O59" t="s">
         <v>98</v>
       </c>
       <c r="Q59" t="s">
@@ -2354,7 +2349,7 @@
       <c r="W59" t="s">
         <v>50</v>
       </c>
-      <c r="X59" s="10" t="s">
+      <c r="X59" t="s">
         <v>128</v>
       </c>
       <c r="Y59" s="9" t="s">
@@ -2362,7 +2357,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
       <c r="E60" t="s">
         <v>13</v>
       </c>
@@ -2375,13 +2370,13 @@
       <c r="H60" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" t="s">
         <v>79</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="14"/>
+      <c r="K60" s="13"/>
       <c r="Q60" t="s">
         <v>39</v>
       </c>
@@ -2418,11 +2413,11 @@
       <c r="I61" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="14"/>
+      <c r="N61" s="13"/>
       <c r="T61" t="s">
         <v>45</v>
       </c>
-      <c r="U61" s="10" t="s">
+      <c r="U61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2458,9 +2453,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="H65" s="10"/>
-    </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>140</v>
@@ -2506,7 +2498,7 @@
       <c r="K68" t="s">
         <v>26</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" t="s">
         <v>93</v>
       </c>
       <c r="N68" t="s">
@@ -2610,7 +2602,7 @@
       <c r="L70" t="s">
         <v>89</v>
       </c>
-      <c r="M70" s="12" t="s">
+      <c r="M70" s="11" t="s">
         <v>85</v>
       </c>
       <c r="N70" t="s">
@@ -2625,7 +2617,7 @@
       <c r="Q70" t="s">
         <v>37</v>
       </c>
-      <c r="R70" s="10" t="s">
+      <c r="R70" t="s">
         <v>5</v>
       </c>
       <c r="T70" t="s">
@@ -2661,7 +2653,7 @@
       <c r="N71" t="s">
         <v>33</v>
       </c>
-      <c r="O71" s="10" t="s">
+      <c r="O71" t="s">
         <v>98</v>
       </c>
       <c r="Q71" t="s">
@@ -2675,7 +2667,7 @@
       <c r="W71" t="s">
         <v>50</v>
       </c>
-      <c r="X71" s="10" t="s">
+      <c r="X71" t="s">
         <v>128</v>
       </c>
       <c r="Y71" s="9" t="s">
@@ -2692,7 +2684,7 @@
       <c r="H72" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" t="s">
         <v>79</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -2775,7 +2767,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="H77" s="14"/>
+      <c r="H77" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prove modelli audio/Exel confronti/Confronti_output.xlsx
+++ b/Prove modelli audio/Exel confronti/Confronti_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaraauriemma/Desktop/Creative_programming_and_computing/SonART/Project/Prove modelli audio/Exel confronti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB48CE-1771-5A48-8E70-425E8C70EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5CC46B-E1A8-9F41-8094-7EC110F24352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{555F36DE-8F55-0548-942B-3AD3F1952369}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="161">
   <si>
     <t xml:space="preserve">Demo Ambienti </t>
   </si>
@@ -510,13 +510,22 @@
   </si>
   <si>
     <t>Bannare  classe animal</t>
+  </si>
+  <si>
+    <t>Demo_Strumenti Musicali label bannate soglia 0.4</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>Drum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,6 +536,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -639,6 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -973,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28F8F75-7FBE-C040-9198-EC9D5FD2985B}">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="125" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="P58" zoomScale="125" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2768,6 +2785,52 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H77" s="13"/>
+      <c r="T77" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T78" t="s">
+        <v>116</v>
+      </c>
+      <c r="U78" s="14"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T79" t="s">
+        <v>41</v>
+      </c>
+      <c r="U79" s="14"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T80" t="s">
+        <v>42</v>
+      </c>
+      <c r="U80" s="14"/>
+    </row>
+    <row r="81" spans="20:22" x14ac:dyDescent="0.2">
+      <c r="T81" t="s">
+        <v>43</v>
+      </c>
+      <c r="U81" s="14"/>
+    </row>
+    <row r="82" spans="20:22" x14ac:dyDescent="0.2">
+      <c r="T82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="20:22" x14ac:dyDescent="0.2">
+      <c r="T83" t="s">
+        <v>45</v>
+      </c>
+      <c r="U83" t="s">
+        <v>121</v>
+      </c>
+      <c r="V83" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
